--- a/Pupil Lists 3.xlsx
+++ b/Pupil Lists 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leroysalih/comment-bank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8629B90F-EB3A-3946-90FE-0296012D5BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA802F7-1EA0-C446-BB7C-3527154B69F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{24499626-BF00-4519-9426-B4A046D46639}"/>
+    <workbookView xWindow="25440" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{24499626-BF00-4519-9426-B4A046D46639}"/>
   </bookViews>
   <sheets>
     <sheet name="Pupil Sheets" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4525" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4527" uniqueCount="623">
   <si>
     <t>Class</t>
   </si>
@@ -1698,15 +1698,9 @@
     <t xml:space="preserve">For theory, &lt;Name&gt; is developing and will benefit from referring to study notes more often.  </t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a confident programmer and is able to solve complex problems with little support.</t>
-  </si>
-  <si>
     <t>&lt;Name&gt; is a competent programmer and is able to solve challenges with support.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a developing programmer and often requires support to complete challenges.</t>
-  </si>
-  <si>
     <t>It has been a pleasure to watch &lt;Name&gt; grow and I hope that &lt;his&gt; development continues.</t>
   </si>
   <si>
@@ -1719,9 +1713,6 @@
     <t>For theory, &lt;Name&gt; has a reasonable understanding of ICT Theory and can answer questions with a little support.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a confident user of applications and is able to solve complex problems with little support.</t>
-  </si>
-  <si>
     <t>11BS</t>
   </si>
   <si>
@@ -1731,15 +1722,9 @@
     <t>For Business theory, &lt;Name&gt; has a reasonable understanding of the key business concepts  and can answer questions with a little support.</t>
   </si>
   <si>
-    <t xml:space="preserve">For theory, &lt;Name&gt; is has demonstrated a poor understanding and will benefit from referring to study notes more often.  </t>
-  </si>
-  <si>
     <t>&lt;Name&gt; is competent at answering exam questions, and is able to answer most styles of exam questions well.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a developing skills to answer exam questions, but will need more practice to ensure a good grade.</t>
-  </si>
-  <si>
     <t>10BS</t>
   </si>
   <si>
@@ -1782,12 +1767,6 @@
     <t>STUDIED</t>
   </si>
   <si>
-    <t>This year, the class was able to revise all 5 units of the course, and review the softeware skills skills section including the use of Spreadsheets, Databases, Graphics packages and Word Processors.</t>
-  </si>
-  <si>
-    <t>This year, the class was able to cover all 5 units of the course, and introduce the softeware skills skills section including the use of Spreadsheets, Databases, Graphics packages and Word Processors.</t>
-  </si>
-  <si>
     <t>This year the pupils have had the opportunity to complete the course and review topics such as business finance, marketing and operations.</t>
   </si>
   <si>
@@ -1836,24 +1815,12 @@
     <t>&lt;Name&gt; will sometimes struggle when discussing DT concepts.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a confident user of materials and tools and is able to solve complex problems with little support.</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>It has been a pleasure to watch &lt;Name&gt; grow and I hope that &lt;his&gt; development continues with other institutions.</t>
   </si>
   <si>
     <t>Although it may at times have been a difficult year for &lt;Name&gt;, I look forward to seeing &lt;his&gt; improvement during a very important year 11.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a confident in &lt;his&gt; use of applications and is able to solve complex problems with little support.</t>
-  </si>
-  <si>
-    <t>&lt;Name&gt; is a developing in &lt;his&gt; use of applications and often requires support to complete challenges.</t>
-  </si>
-  <si>
     <t>It has been a pleasure to have &lt;Name&gt; in the class and I look forward to assisting &lt;his&gt; studies into Year 11 and &lt;his&gt; GCSE's.</t>
   </si>
   <si>
@@ -1866,9 +1833,6 @@
     <t>&lt;Name&gt; is developing in &lt;his&gt; use of applications and often requires support to complete challenges.</t>
   </si>
   <si>
-    <t>&lt;Name&gt; is a confident in &lt;his&gt; structure of Exam skills and is able to answer exam questions is a way that will maximise grades.</t>
-  </si>
-  <si>
     <t>&lt;Name&gt; is competent in &lt;his&gt; use of materials and tools and is able to solve challenges with support.</t>
   </si>
   <si>
@@ -1887,9 +1851,6 @@
     <t>The work produced by &lt;Name&gt; has been consistently high throughout the year, and &lt;Name&gt; clearly takes a great deal of pride in both correctness and presentation.</t>
   </si>
   <si>
-    <t>The work produced by &lt;Name&gt; has been good throughout the year, usually correct and well and presented.</t>
-  </si>
-  <si>
     <t>It has been a pleasure to have &lt;Name&gt; in the class and we wish &lt;him&gt; good luck as &lt;he&gt; continues &lt;his&gt; educational journey.</t>
   </si>
   <si>
@@ -1897,6 +1858,54 @@
   </si>
   <si>
     <t>This year the pupils have spent time learning about the processes, materials (such as acrylic, woods) , tools  (laser cutter, 3D printer) and techniques (CAD, Design) that are used in Design Technology</t>
+  </si>
+  <si>
+    <t>The work produced by &lt;Name&gt; has been good throughout the year, usually correct and well presented.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is confident programmer and is able to solve complex problems with little support.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is confident in &lt;his&gt; use of applications and is able to solve complex problems with little support.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is confident user of applications and is able to solve complex problems with little support.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is confident user of materials and tools and is able to solve complex problems with little support.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is developing  programmer and often requires support to complete challenges.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is developing  in &lt;his&gt; use of applications and often requires support to complete challenges.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is developing  skills to answer exam questions, but will need more practice to ensure a good grade.</t>
+  </si>
+  <si>
+    <t>&lt;Name&gt; is confident in &lt;his&gt; structure of exam skills and is able to answer exam questions in a way that will maximise grades.</t>
+  </si>
+  <si>
+    <t>This year the class studies many topics that provide a good foundation of business skills, such as finance, marketing and HR.</t>
+  </si>
+  <si>
+    <t>This year, the Economics pupils have studied a range of topics including Supply and Demand, The Mixed Economy and Business Economics.</t>
+  </si>
+  <si>
+    <t>This year, the class was able to revise all 5 units of the course, and review the software skills  section including the use of Spreadsheets, Databases, Graphics packages and Word Processors.</t>
+  </si>
+  <si>
+    <t>This year, the class was able to cover all 5 units of the course, and introduce the software skills  section including the use of Spreadsheets, Databases, Graphics packages and Word Processors.</t>
+  </si>
+  <si>
+    <t>This year, the class studied advanced management skills such as Critical Path analysis, and financial methods to allow the pupils to gain a firm understanding of management principles.</t>
+  </si>
+  <si>
+    <t>This year the class has focussed on macro economic issues while preparing for the GCSE exams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For theory, &lt;Name&gt; has demonstrated a poor understanding and will benefit from referring to study notes more often.  </t>
   </si>
 </sst>
 </file>
@@ -2474,49 +2483,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="I1" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="Q1" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>573</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -26876,8 +26885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4138A4-A7F7-4BCA-97B0-38B2585B0363}">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -26887,7 +26896,7 @@
         <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C1" t="s">
         <v>548</v>
@@ -26898,10 +26907,10 @@
         <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -26909,10 +26918,10 @@
         <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -26920,7 +26929,7 @@
         <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C4" t="s">
         <v>549</v>
@@ -26931,7 +26940,7 @@
         <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C5" t="s">
         <v>550</v>
@@ -26942,7 +26951,7 @@
         <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
         <v>551</v>
@@ -26953,7 +26962,7 @@
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C7" t="s">
         <v>552</v>
@@ -26964,10 +26973,10 @@
         <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -26975,10 +26984,10 @@
         <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -26986,10 +26995,10 @@
         <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C10" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -26997,10 +27006,10 @@
         <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C11" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -27008,10 +27017,10 @@
         <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -27019,10 +27028,10 @@
         <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27030,10 +27039,10 @@
         <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C15" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -27041,10 +27050,10 @@
         <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C16" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -27052,7 +27061,7 @@
         <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C17" t="s">
         <v>549</v>
@@ -27063,7 +27072,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C18" t="s">
         <v>550</v>
@@ -27074,7 +27083,7 @@
         <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C19" t="s">
         <v>551</v>
@@ -27085,7 +27094,7 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C20" t="s">
         <v>552</v>
@@ -27096,10 +27105,10 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C21" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -27107,10 +27116,10 @@
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -27118,10 +27127,10 @@
         <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C23" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -27129,10 +27138,10 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C24" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -27140,10 +27149,10 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C25" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -27151,10 +27160,10 @@
         <v>159</v>
       </c>
       <c r="B27" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C27" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -27162,10 +27171,10 @@
         <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -27173,10 +27182,10 @@
         <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C29" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -27184,7 +27193,7 @@
         <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C30" t="s">
         <v>549</v>
@@ -27195,10 +27204,10 @@
         <v>159</v>
       </c>
       <c r="B31" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -27206,10 +27215,10 @@
         <v>159</v>
       </c>
       <c r="B32" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -27217,7 +27226,7 @@
         <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C33" t="s">
         <v>552</v>
@@ -27228,10 +27237,10 @@
         <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C34" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -27239,10 +27248,10 @@
         <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C35" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -27250,10 +27259,10 @@
         <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C36" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -27261,10 +27270,10 @@
         <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C37" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -27272,10 +27281,10 @@
         <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -27283,10 +27292,10 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C40" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -27294,10 +27303,10 @@
         <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -27305,10 +27314,10 @@
         <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C42" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -27316,7 +27325,7 @@
         <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C43" t="s">
         <v>549</v>
@@ -27327,10 +27336,10 @@
         <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C44" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -27338,10 +27347,10 @@
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C45" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -27349,7 +27358,7 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C46" t="s">
         <v>552</v>
@@ -27360,10 +27369,10 @@
         <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -27371,10 +27380,10 @@
         <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C48" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -27382,10 +27391,10 @@
         <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C49" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -27393,10 +27402,10 @@
         <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C50" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -27404,10 +27413,10 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C51" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -27415,10 +27424,10 @@
         <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C53" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -27426,10 +27435,10 @@
         <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C54" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -27437,10 +27446,10 @@
         <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C55" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -27448,7 +27457,7 @@
         <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C56" t="s">
         <v>549</v>
@@ -27459,10 +27468,10 @@
         <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C57" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -27470,10 +27479,10 @@
         <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -27481,10 +27490,10 @@
         <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C59" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -27492,10 +27501,10 @@
         <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C60" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -27503,10 +27512,10 @@
         <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C61" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -27514,10 +27523,10 @@
         <v>215</v>
       </c>
       <c r="B62" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C62" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -27525,10 +27534,10 @@
         <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C63" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -27536,10 +27545,10 @@
         <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C64" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -27547,10 +27556,10 @@
         <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C66" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -27558,10 +27567,10 @@
         <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C67" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -27569,10 +27578,10 @@
         <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C68" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -27580,7 +27589,7 @@
         <v>196</v>
       </c>
       <c r="B69" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C69" t="s">
         <v>549</v>
@@ -27591,10 +27600,10 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C70" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -27602,10 +27611,10 @@
         <v>196</v>
       </c>
       <c r="B71" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C71" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -27613,10 +27622,10 @@
         <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C72" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -27624,10 +27633,10 @@
         <v>196</v>
       </c>
       <c r="B73" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C73" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -27635,10 +27644,10 @@
         <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C74" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -27646,10 +27655,10 @@
         <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C75" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -27657,10 +27666,10 @@
         <v>196</v>
       </c>
       <c r="B76" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C76" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -27668,51 +27677,51 @@
         <v>196</v>
       </c>
       <c r="B77" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B79" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C79" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B80" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C80" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B81" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C81" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B82" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C82" t="s">
         <v>549</v>
@@ -27720,131 +27729,131 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B83" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C83" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B84" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C84" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B85" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C85" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C86" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>558</v>
+      </c>
+      <c r="B87" t="s">
+        <v>571</v>
+      </c>
+      <c r="C87" t="s">
         <v>561</v>
-      </c>
-      <c r="B87" t="s">
-        <v>576</v>
-      </c>
-      <c r="C87" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C88" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B89" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C89" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C90" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B93" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C93" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B94" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C94" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B95" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B96" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C96" t="s">
         <v>549</v>
@@ -27852,90 +27861,90 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>562</v>
+      </c>
+      <c r="B97" t="s">
         <v>567</v>
       </c>
-      <c r="B97" t="s">
-        <v>572</v>
-      </c>
       <c r="C97" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B98" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B99" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C99" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B100" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C100" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B101" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C101" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B102" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C102" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B103" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C103" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B104" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C104" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -27943,7 +27952,10 @@
         <v>186</v>
       </c>
       <c r="B106" t="s">
-        <v>580</v>
+        <v>575</v>
+      </c>
+      <c r="C106" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -27951,10 +27963,10 @@
         <v>186</v>
       </c>
       <c r="B107" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C107" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -27962,10 +27974,10 @@
         <v>186</v>
       </c>
       <c r="B108" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C108" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -27973,7 +27985,7 @@
         <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C109" t="s">
         <v>549</v>
@@ -27984,10 +27996,10 @@
         <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C110" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -27995,10 +28007,10 @@
         <v>186</v>
       </c>
       <c r="B111" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C111" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -28006,10 +28018,10 @@
         <v>186</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C112" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -28017,10 +28029,10 @@
         <v>186</v>
       </c>
       <c r="B113" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C113" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -28028,10 +28040,10 @@
         <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C114" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -28039,10 +28051,10 @@
         <v>186</v>
       </c>
       <c r="B115" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -28050,10 +28062,10 @@
         <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C116" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -28061,48 +28073,51 @@
         <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C117" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B119" t="s">
-        <v>580</v>
+        <v>575</v>
+      </c>
+      <c r="C119" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B120" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C120" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B121" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C121" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B122" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C122" t="s">
         <v>549</v>
@@ -28110,90 +28125,90 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B123" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C123" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>563</v>
+      </c>
+      <c r="B124" t="s">
         <v>568</v>
       </c>
-      <c r="B124" t="s">
-        <v>573</v>
-      </c>
       <c r="C124" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B125" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C125" t="s">
-        <v>564</v>
+        <v>622</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B126" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C126" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B127" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C127" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B128" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C128" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B129" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C129" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B130" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C130" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -28201,10 +28216,10 @@
         <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C132" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -28212,10 +28227,10 @@
         <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C133" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -28223,10 +28238,10 @@
         <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C134" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -28234,7 +28249,7 @@
         <v>171</v>
       </c>
       <c r="B135" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C135" t="s">
         <v>549</v>
@@ -28245,10 +28260,10 @@
         <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C136" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -28256,10 +28271,10 @@
         <v>171</v>
       </c>
       <c r="B137" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C137" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -28267,10 +28282,10 @@
         <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C138" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -28278,10 +28293,10 @@
         <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C139" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -28289,10 +28304,10 @@
         <v>171</v>
       </c>
       <c r="B140" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C140" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -28300,10 +28315,10 @@
         <v>171</v>
       </c>
       <c r="B141" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C141" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -28311,10 +28326,10 @@
         <v>171</v>
       </c>
       <c r="B142" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C142" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -28322,51 +28337,51 @@
         <v>171</v>
       </c>
       <c r="B143" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C143" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B145" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C145" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B146" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C146" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B147" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C147" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B148" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C148" t="s">
         <v>549</v>
@@ -28374,131 +28389,131 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" t="s">
+        <v>567</v>
+      </c>
+      <c r="C149" t="s">
         <v>589</v>
-      </c>
-      <c r="B149" t="s">
-        <v>572</v>
-      </c>
-      <c r="C149" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B150" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C150" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B151" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C151" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B152" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C152" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B153" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B154" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C154" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B155" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C155" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B156" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C156" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B158" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C158" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B159" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C159" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B160" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C160" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B161" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C161" t="s">
         <v>549</v>
@@ -28506,90 +28521,90 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B162" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C162" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B163" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C163" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B164" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C164" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B165" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C165" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B166" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C166" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B167" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C167" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B168" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C168" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B169" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C169" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
